--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-practitioner.xlsx
@@ -473,7 +473,7 @@
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
+    <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
 Practitioner.identifier.systemには、
 医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号
 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
